--- a/Datos_2020_2021/TABLA_Comp-abundancia crucero reclas 21-05_MariaJosé.xlsx
+++ b/Datos_2020_2021/TABLA_Comp-abundancia crucero reclas 21-05_MariaJosé.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\TRABAJO\1PROYECTOS\Fip-Actual\RECLAS\Reclas_2021\Cruc_Otoño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/ANCHOVETA/INFORME_FINAL/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8988F98-504B-46B7-A04E-D662B5EE7F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4736E1E-4B13-984E-A4DA-C1808B551987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8F6BC2B7-EA0F-4A66-9090-C09C76DAE020}"/>
+    <workbookView xWindow="-160" yWindow="500" windowWidth="26140" windowHeight="15840" xr2:uid="{8F6BC2B7-EA0F-4A66-9090-C09C76DAE020}"/>
   </bookViews>
   <sheets>
     <sheet name="Ab-an-biol" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ab-an-calendario'!$B$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Ab-sc'!$B$1:$J$52</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -199,9 +208,9 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.0\ _P_t_s_-;\-* #,##0.0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0E+00"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -636,20 +645,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="5" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="5" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,7 +689,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -924,7 +933,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="256352688"/>
@@ -970,7 +979,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="256353080"/>
@@ -1019,7 +1028,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1047,7 +1056,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1062,7 +1071,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1306,7 +1315,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="256352688"/>
@@ -1353,7 +1362,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="256353080"/>
@@ -1401,7 +1410,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1429,7 +1438,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1444,7 +1453,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1688,7 +1697,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="256352688"/>
@@ -1734,7 +1743,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="256353080"/>
@@ -1783,7 +1792,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1811,7 +1820,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3266,25 +3275,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FED0C02-A187-4DE9-A570-C65BDF04B94D}">
   <dimension ref="B1:W66"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="35" zoomScaleNormal="35" workbookViewId="0"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A33" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.81640625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="36.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="36" x14ac:dyDescent="0.15">
       <c r="B1" s="90" t="s">
         <v>27</v>
       </c>
@@ -3297,7 +3308,7 @@
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
     </row>
-    <row r="2" spans="2:23" ht="36.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="36" x14ac:dyDescent="0.15">
       <c r="B2" s="90" t="s">
         <v>36</v>
       </c>
@@ -3310,8 +3321,8 @@
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
     </row>
-    <row r="3" spans="2:23" ht="25.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:23" s="8" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:23" ht="26" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:23" s="8" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -3322,7 +3333,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:23" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:23" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +3358,7 @@
       <c r="V5" s="15"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:23" s="8" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" s="8" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
@@ -3409,7 +3420,7 @@
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="25">
         <v>2</v>
       </c>
@@ -3447,7 +3458,7 @@
       </c>
       <c r="W8" s="36"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="25">
         <v>2.5</v>
       </c>
@@ -3496,7 +3507,7 @@
       </c>
       <c r="W9" s="36"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="25">
         <v>3</v>
       </c>
@@ -3545,7 +3556,7 @@
       </c>
       <c r="W10" s="36"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
         <v>3.5</v>
       </c>
@@ -3594,7 +3605,7 @@
       </c>
       <c r="W11" s="36"/>
     </row>
-    <row r="12" spans="2:23" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -3627,7 +3638,7 @@
       <c r="V12" s="44"/>
       <c r="W12" s="45"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>4.5</v>
       </c>
@@ -3652,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
         <v>5</v>
       </c>
@@ -3677,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="25">
         <v>5.5</v>
       </c>
@@ -3702,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>6</v>
       </c>
@@ -3730,7 +3741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>6.5</v>
       </c>
@@ -3762,7 +3773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>7</v>
       </c>
@@ -3794,7 +3805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>7.5</v>
       </c>
@@ -3826,7 +3837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>8</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>8.5</v>
       </c>
@@ -3880,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="25">
         <v>9</v>
       </c>
@@ -3905,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>9.5</v>
       </c>
@@ -3930,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="25">
         <v>10</v>
       </c>
@@ -3955,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <v>10.5</v>
       </c>
@@ -3980,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
         <v>11</v>
       </c>
@@ -4005,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>11.5</v>
       </c>
@@ -4030,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>12</v>
       </c>
@@ -4055,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="25">
         <v>12.5</v>
       </c>
@@ -4080,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>13</v>
       </c>
@@ -4105,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>13.5</v>
       </c>
@@ -4130,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>14</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>14.5</v>
       </c>
@@ -4180,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="25">
         <v>15</v>
       </c>
@@ -4203,7 +4214,7 @@
       <c r="I34" s="33"/>
       <c r="J34" s="38"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="25">
         <v>15.5</v>
       </c>
@@ -4226,7 +4237,7 @@
       <c r="I35" s="33"/>
       <c r="J35" s="38"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>16</v>
       </c>
@@ -4251,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>16.5</v>
       </c>
@@ -4276,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
         <v>17</v>
       </c>
@@ -4304,7 +4315,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
         <v>17.5</v>
       </c>
@@ -4330,7 +4341,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
         <v>18</v>
       </c>
@@ -4356,7 +4367,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="25">
         <v>18.5</v>
       </c>
@@ -4384,7 +4395,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="25">
         <v>19</v>
       </c>
@@ -4412,7 +4423,7 @@
       <c r="M42"/>
       <c r="N42"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
         <v>19.5</v>
       </c>
@@ -4430,7 +4441,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <v>20</v>
       </c>
@@ -4448,7 +4459,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="2:14" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:14" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25"/>
       <c r="C45" s="32"/>
       <c r="D45" s="33"/>
@@ -4464,7 +4475,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
         <v>21</v>
       </c>
@@ -4492,7 +4503,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>22</v>
       </c>
@@ -4520,7 +4531,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>23</v>
       </c>
@@ -4548,7 +4559,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="2:14" s="61" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>32</v>
       </c>
@@ -4576,7 +4587,7 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="62" t="s">
         <v>33</v>
       </c>
@@ -4604,7 +4615,7 @@
       <c r="M50"/>
       <c r="N50"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="65" t="s">
         <v>34</v>
       </c>
@@ -4632,7 +4643,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="52" spans="2:14" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="68" t="s">
         <v>35</v>
       </c>
@@ -4655,7 +4666,7 @@
       <c r="I52" s="71"/>
       <c r="J52" s="72"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
@@ -4664,16 +4675,16 @@
         <v>174.3775014695149</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:I55" si="0">D46/1000000</f>
+        <f>D46/1000000</f>
         <v>35177.209924697359</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D55:I55" si="0">E46/1000000</f>
         <v>33455.372101967543</v>
       </c>
       <c r="F55" s="3">
@@ -4681,7 +4692,7 @@
         <v>6308.1890118902547</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="0"/>
+        <f>G46/1000000</f>
         <v>58.02565897185859</v>
       </c>
       <c r="H55" s="3">
@@ -4693,13 +4704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <f>L58</f>
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" s="73">
         <f>K58</f>
         <v>28.180235697302109</v>
@@ -4729,7 +4740,7 @@
         <v>V</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="75">
         <v>2019</v>
       </c>
@@ -4774,7 +4785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="3" t="s">
         <v>30</v>
@@ -4812,7 +4823,7 @@
         <v>71.819764302697891</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="75"/>
       <c r="J60" s="73">
         <f>SUM(J58:J59)</f>
@@ -4823,13 +4834,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="75"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="75"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="75"/>
       <c r="C63" s="73">
         <f>K64</f>
@@ -4855,7 +4866,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="75"/>
       <c r="C64" s="3" t="s">
         <v>31</v>
@@ -4872,7 +4883,7 @@
       <c r="K64" s="73"/>
       <c r="L64" s="41"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="75"/>
       <c r="C65" s="3" t="s">
         <v>30</v>
@@ -4889,7 +4900,7 @@
       <c r="K65" s="73"/>
       <c r="L65" s="41"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="75"/>
       <c r="J66" s="73"/>
       <c r="K66" s="73"/>
@@ -4920,23 +4931,23 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="35" zoomScaleNormal="35" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.81640625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="36.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="36" x14ac:dyDescent="0.15">
       <c r="B1" s="90" t="s">
         <v>27</v>
       </c>
@@ -4949,7 +4960,7 @@
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
     </row>
-    <row r="2" spans="2:23" ht="36.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="36" x14ac:dyDescent="0.15">
       <c r="B2" s="90" t="s">
         <v>36</v>
       </c>
@@ -4962,8 +4973,8 @@
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
     </row>
-    <row r="3" spans="2:23" ht="25.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:23" s="8" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:23" ht="26" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:23" s="8" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -4974,7 +4985,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:23" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:23" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5010,7 @@
       <c r="V5" s="15"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:23" s="8" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" s="8" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
@@ -5042,7 +5053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
@@ -5061,7 +5072,7 @@
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="25">
         <v>2</v>
       </c>
@@ -5099,7 +5110,7 @@
       </c>
       <c r="W8" s="36"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="25">
         <v>2.5</v>
       </c>
@@ -5148,7 +5159,7 @@
       </c>
       <c r="W9" s="36"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="25">
         <v>3</v>
       </c>
@@ -5199,7 +5210,7 @@
       </c>
       <c r="W10" s="36"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
         <v>3.5</v>
       </c>
@@ -5250,7 +5261,7 @@
       </c>
       <c r="W11" s="36"/>
     </row>
-    <row r="12" spans="2:23" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -5285,7 +5296,7 @@
       <c r="V12" s="44"/>
       <c r="W12" s="45"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>4.5</v>
       </c>
@@ -5312,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
         <v>5</v>
       </c>
@@ -5339,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="25">
         <v>5.5</v>
       </c>
@@ -5366,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>6</v>
       </c>
@@ -5396,7 +5407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>6.5</v>
       </c>
@@ -5430,7 +5441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>7</v>
       </c>
@@ -5464,7 +5475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>7.5</v>
       </c>
@@ -5498,7 +5509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>8</v>
       </c>
@@ -5529,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>8.5</v>
       </c>
@@ -5556,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="25">
         <v>9</v>
       </c>
@@ -5583,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>9.5</v>
       </c>
@@ -5610,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="25">
         <v>10</v>
       </c>
@@ -5637,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <v>10.5</v>
       </c>
@@ -5664,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
         <v>11</v>
       </c>
@@ -5691,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>11.5</v>
       </c>
@@ -5718,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>12</v>
       </c>
@@ -5745,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="25">
         <v>12.5</v>
       </c>
@@ -5772,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>13</v>
       </c>
@@ -5799,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>13.5</v>
       </c>
@@ -5826,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>14</v>
       </c>
@@ -5853,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>14.5</v>
       </c>
@@ -5880,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="25">
         <v>15</v>
       </c>
@@ -5905,7 +5916,7 @@
       <c r="I34" s="33"/>
       <c r="J34" s="38"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="25">
         <v>15.5</v>
       </c>
@@ -5928,7 +5939,7 @@
       <c r="I35" s="33"/>
       <c r="J35" s="38"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>16</v>
       </c>
@@ -5953,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>16.5</v>
       </c>
@@ -5978,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
         <v>17</v>
       </c>
@@ -6006,7 +6017,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
         <v>17.5</v>
       </c>
@@ -6032,7 +6043,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
         <v>18</v>
       </c>
@@ -6058,7 +6069,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="25">
         <v>18.5</v>
       </c>
@@ -6086,7 +6097,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="25">
         <v>19</v>
       </c>
@@ -6114,7 +6125,7 @@
       <c r="M42"/>
       <c r="N42"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
         <v>19.5</v>
       </c>
@@ -6132,7 +6143,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <v>20</v>
       </c>
@@ -6150,7 +6161,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="2:14" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:14" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25"/>
       <c r="C45" s="32"/>
       <c r="D45" s="33"/>
@@ -6166,7 +6177,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
         <v>21</v>
       </c>
@@ -6194,7 +6205,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>22</v>
       </c>
@@ -6222,7 +6233,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>23</v>
       </c>
@@ -6250,7 +6261,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="2:14" s="61" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>32</v>
       </c>
@@ -6278,7 +6289,7 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="62" t="s">
         <v>33</v>
       </c>
@@ -6306,7 +6317,7 @@
       <c r="M50"/>
       <c r="N50"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="65" t="s">
         <v>34</v>
       </c>
@@ -6334,7 +6345,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="52" spans="2:14" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="68" t="s">
         <v>35</v>
       </c>
@@ -6359,7 +6370,7 @@
       <c r="I52" s="71"/>
       <c r="J52" s="72"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
@@ -6368,7 +6379,7 @@
         <v>173.027401482074</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
         <v>18</v>
       </c>
@@ -6397,13 +6408,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <f>L58</f>
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" s="73">
         <f>K58</f>
         <v>28.180235697302102</v>
@@ -6433,7 +6444,7 @@
         <v>V</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="75">
         <v>2019</v>
       </c>
@@ -6478,7 +6489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="3" t="s">
         <v>30</v>
@@ -6516,7 +6527,7 @@
         <v>71.819764302697905</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="75"/>
       <c r="J60" s="73">
         <f>SUM(J58:J59)</f>
@@ -6527,13 +6538,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="75"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="75"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="75"/>
       <c r="C63" s="73">
         <f>K64</f>
@@ -6559,7 +6570,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="75"/>
       <c r="C64" s="3" t="s">
         <v>31</v>
@@ -6576,7 +6587,7 @@
       <c r="K64" s="73"/>
       <c r="L64" s="41"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="75"/>
       <c r="C65" s="3" t="s">
         <v>30</v>
@@ -6593,7 +6604,7 @@
       <c r="K65" s="73"/>
       <c r="L65" s="41"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="75"/>
       <c r="J66" s="73"/>
       <c r="K66" s="73"/>
@@ -6622,25 +6633,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E8095F-4A82-42F7-83DD-83C5DAE4D64C}">
   <dimension ref="B1:W66"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0"/>
+    <sheetView showZeros="0" topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.81640625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="36.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="36" x14ac:dyDescent="0.15">
       <c r="B1" s="90" t="s">
         <v>28</v>
       </c>
@@ -6653,7 +6666,7 @@
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
     </row>
-    <row r="2" spans="2:23" ht="36.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="36" x14ac:dyDescent="0.15">
       <c r="B2" s="90" t="s">
         <v>36</v>
       </c>
@@ -6666,8 +6679,8 @@
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
     </row>
-    <row r="3" spans="2:23" ht="25.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:23" s="8" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:23" ht="26" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:23" s="8" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -6678,7 +6691,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:23" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:23" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -6703,7 +6716,7 @@
       <c r="V5" s="15"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:23" s="8" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" s="8" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
@@ -6746,7 +6759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
@@ -6765,7 +6778,7 @@
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="25">
         <v>2</v>
       </c>
@@ -6803,7 +6816,7 @@
       </c>
       <c r="W8" s="36"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="25">
         <v>2.5</v>
       </c>
@@ -6842,7 +6855,7 @@
       </c>
       <c r="W9" s="36"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="25">
         <v>3</v>
       </c>
@@ -6881,7 +6894,7 @@
       </c>
       <c r="W10" s="36"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
         <v>3.5</v>
       </c>
@@ -6920,7 +6933,7 @@
       </c>
       <c r="W11" s="36"/>
     </row>
-    <row r="12" spans="2:23" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -6943,7 +6956,7 @@
       <c r="V12" s="44"/>
       <c r="W12" s="45"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>4.5</v>
       </c>
@@ -6968,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
         <v>5</v>
       </c>
@@ -6993,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="25">
         <v>5.5</v>
       </c>
@@ -7018,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>6</v>
       </c>
@@ -7046,7 +7059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>6.5</v>
       </c>
@@ -7078,7 +7091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>7</v>
       </c>
@@ -7110,7 +7123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>7.5</v>
       </c>
@@ -7142,7 +7155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>8</v>
       </c>
@@ -7171,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>8.5</v>
       </c>
@@ -7196,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="25">
         <v>9</v>
       </c>
@@ -7221,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>9.5</v>
       </c>
@@ -7246,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="25">
         <v>10</v>
       </c>
@@ -7271,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <v>10.5</v>
       </c>
@@ -7296,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
         <v>11</v>
       </c>
@@ -7321,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>11.5</v>
       </c>
@@ -7346,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>12</v>
       </c>
@@ -7371,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="25">
         <v>12.5</v>
       </c>
@@ -7396,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>13</v>
       </c>
@@ -7421,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>13.5</v>
       </c>
@@ -7446,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>14</v>
       </c>
@@ -7471,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>14.5</v>
       </c>
@@ -7496,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="25">
         <v>15</v>
       </c>
@@ -7519,7 +7532,7 @@
       <c r="I34" s="33"/>
       <c r="J34" s="38"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="25">
         <v>15.5</v>
       </c>
@@ -7542,7 +7555,7 @@
       <c r="I35" s="33"/>
       <c r="J35" s="38"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>16</v>
       </c>
@@ -7567,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>16.5</v>
       </c>
@@ -7592,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
         <v>17</v>
       </c>
@@ -7620,7 +7633,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
         <v>17.5</v>
       </c>
@@ -7636,7 +7649,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
         <v>18</v>
       </c>
@@ -7652,7 +7665,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="25">
         <v>18.5</v>
       </c>
@@ -7670,7 +7683,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="25">
         <v>19</v>
       </c>
@@ -7688,7 +7701,7 @@
       <c r="M42"/>
       <c r="N42"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
         <v>19.5</v>
       </c>
@@ -7706,7 +7719,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <v>20</v>
       </c>
@@ -7724,7 +7737,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="2:14" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:14" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25"/>
       <c r="C45" s="32"/>
       <c r="D45" s="33"/>
@@ -7740,7 +7753,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
         <v>21</v>
       </c>
@@ -7768,7 +7781,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>22</v>
       </c>
@@ -7796,7 +7809,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>23</v>
       </c>
@@ -7824,7 +7837,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="2:14" s="61" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>32</v>
       </c>
@@ -7852,7 +7865,7 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="62" t="s">
         <v>33</v>
       </c>
@@ -7880,7 +7893,7 @@
       <c r="M50"/>
       <c r="N50"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="65" t="s">
         <v>34</v>
       </c>
@@ -7908,7 +7921,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="52" spans="2:14" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="68" t="s">
         <v>35</v>
       </c>
@@ -7931,7 +7944,7 @@
       <c r="I52" s="71"/>
       <c r="J52" s="72"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
         <v>24</v>
       </c>
@@ -7940,7 +7953,7 @@
         <v>461.29239878835051</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
         <v>18</v>
       </c>
@@ -7969,13 +7982,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <f>L58</f>
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" s="73">
         <f>K58</f>
         <v>76.739647874715317</v>
@@ -8005,7 +8018,7 @@
         <v>V</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="75">
         <v>2019</v>
       </c>
@@ -8050,7 +8063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="3" t="s">
         <v>25</v>
@@ -8088,7 +8101,7 @@
         <v>23.260352125284676</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="75"/>
       <c r="J60" s="73">
         <f>SUM(J58:J59)</f>
@@ -8099,13 +8112,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="75"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="75"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="75"/>
       <c r="C63" s="73">
         <f>K64</f>
@@ -8131,7 +8144,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="75"/>
       <c r="C64" s="3" t="s">
         <v>26</v>
@@ -8148,7 +8161,7 @@
       <c r="K64" s="73"/>
       <c r="L64" s="41"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="75"/>
       <c r="C65" s="3" t="s">
         <v>25</v>
@@ -8165,7 +8178,7 @@
       <c r="K65" s="73"/>
       <c r="L65" s="41"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="75"/>
       <c r="J66" s="73"/>
       <c r="K66" s="73"/>
